--- a/Agreement and discrepancy taxonomy/3. comparison_with_vs_without_AI.xlsx
+++ b/Agreement and discrepancy taxonomy/3. comparison_with_vs_without_AI.xlsx
@@ -5,21 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ikiam-my.sharepoint.com/personal/carlos_mejia_ikiam_edu_ec/Documents/Escritorio/cursos/phd/paper 3/discusión/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pp3\SECM-CAT\Agreement and discrepancy taxonomy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="11_D613FCB93A9203135E0A5F9ACCCBF7F471910526" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E6ED7BA-5630-4DA5-9DAF-4A1F11477B43}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553AF631-3DCC-414B-82D1-39B4C3D6AD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="66 discrepancies " sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="no vs na" sheetId="4" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$E$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja2!$A$1:$E$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'no vs na'!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="593">
   <si>
     <t>PUID</t>
   </si>
@@ -1488,12 +1489,6 @@
     <t>requirió navegar en el código fuente de la aplicación para verificar si key credentials are loaded securely using environment variables</t>
   </si>
   <si>
-    <t xml:space="preserve">Se debía ingresar al código fuente de la palicación para buscar si se usaba object serialization using safe serialization APIs to prevent security vulnerabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se debía ingresar al código fuente de la palicación para buscar si se usaba object deserialization using safe serialization APIs to prevent security vulnerabilities </t>
-  </si>
-  <si>
     <t>Se debía ingresar a la aplicación como un usuario del sistema y verificar que no se tenga acceso a funciones catalogadas como privilegiadas</t>
   </si>
   <si>
@@ -1515,12 +1510,6 @@
     <t>Se requirió verificar los permisos por cada usuario y a que módulos podía acceder a fin de evaluar el control</t>
   </si>
   <si>
-    <t>Requirió revisar el código de la aplicación y no mechanisms have been found to restrict connection times to high-risk EHRi services to improve security and minimize the risk of unauthorized access</t>
-  </si>
-  <si>
-    <t>Requirió una revisión y análisis de la funcionalidad, consecuentemente no se encontraron mecanismos para restrict connection times to high-risk EHRi services to enhance security and minimize the risk of unauthorized access</t>
-  </si>
-  <si>
     <t>Se requirió una revisión de código para descartar el uso de device identifiers or geolocation data, for user authentication</t>
   </si>
   <si>
@@ -1542,9 +1531,6 @@
     <t>Se tuvo que ingresar al backend de la aplicación. y se verifica que the application, through the user and role management web module, implements a role-based access control (RBAC) mechanism for authorization, independent of authentication mechanisms. It also allows permissions to be assigned to modules based on the user</t>
   </si>
   <si>
-    <t>Se requirió revisar la funcionalidad de la aplicación en modo de ejecución para corroborar si incluye controles biométricos como FaceID and TouchID</t>
-  </si>
-  <si>
     <t>Se ingresó a la aplicación del servidor web y se comparó con la autenticación de la app móvil y son iguales, usuario y contraseña</t>
   </si>
   <si>
@@ -1563,12 +1549,6 @@
     <t>Requirió una revisión manual code, and it is verified that WebViews functionality is not implemented, therefore, control is considered to be fulfilled by design</t>
   </si>
   <si>
-    <t>Fue necesario una instalación de teclados de terceras personas y verificar que la aplicación no permita el ingreso de datos desde el mismo</t>
-  </si>
-  <si>
-    <t>Fuen necesario correr la aplicación para verificar que running the app, we observed that the clipboard allows users to copy and paste the username and password for login</t>
-  </si>
-  <si>
     <t>Se requirió correr la aplicación y verificar que la aplicación enmascara con asteriscos el password</t>
   </si>
   <si>
@@ -1590,21 +1570,9 @@
     <t>Fue necesario verificar que la aplicación en tiempo de ejecución emplee credenciales únicas para autenticación, en este caso se usa usuario y password</t>
   </si>
   <si>
-    <t>Fue necesario realizar un análisis de código dinámico al backend de la aplicación web para verificar que hay missing headers and configurations in the backend to better manage http/https requests</t>
-  </si>
-  <si>
     <t>Fue necesario ingresar al cóigo fuente de la aplicación y erificar que no se encuentra habilitado JS, por lo que cumpliría a través de diseño seguro por defecto</t>
   </si>
   <si>
-    <t>Fue necesario ejecutar la aplicación y evaluar si al pasar a segundo plano se limpiaba los datos sensibles, al ejecutar no superó la prueba</t>
-  </si>
-  <si>
-    <t>Fue necesaria una inspección de código en la que se detectó que existía una posibilidad de command injection</t>
-  </si>
-  <si>
-    <t>Fue necesario una inspección del código fuente de la aplicación para detectar que la característica de no toucheable no se encontraba implementada, por lo que no prevendría prevent tapjacking attacks</t>
-  </si>
-  <si>
     <t>No se encontraron vulnerabilidades asociadas a desbordamiento de buffer al realizar un escaneo del backend de la aplicación, así mismo no se encontró la vulnerabilidad en el código fuente de la apk</t>
   </si>
   <si>
@@ -1638,27 +1606,15 @@
     <t>Fue necesario desinstalar la aplicación de manera manual y verificar vía comandos que confidential user data are deleted luego de desinstalar</t>
   </si>
   <si>
-    <t>Fue necesario revisar la documentación y código fuente y there is no evidence of explicit segregation in storage or configuration/control files in a directory separate from user data</t>
-  </si>
-  <si>
     <t>Fue necesario revisar la funcionalidad de la aplicación web backend y there is a function to match patients by certain criteria, including UUID</t>
   </si>
   <si>
     <t>Fue necesario acceder al código fuente de la aplicación y verificar que no se ocupen modos deprecados, for instance  MODE_WORLD_READABLE is not implemented, nor was the use of sockets identified, therefore the requirement is met</t>
   </si>
   <si>
-    <t>Fue necesaria una revisión del código fuente de la aplicación y  the application code reveals no functionality to capture the user's most recent activity date</t>
-  </si>
-  <si>
     <t>sí</t>
   </si>
   <si>
-    <t>se requirió un escaneo del backend web de la aplicación para descartar vulnerabilidades asocioadas con poor randomization and incidents of loss of access to generated tokens in endpoints</t>
-  </si>
-  <si>
-    <t>Se requirió una revisión del código de la aplicación para verificar que no se implemente Webviews ni JS por lo que output sanitization measures to prevent cross-site scripting (XSS) attacks no es aplicable, presenta seguridad por diseño</t>
-  </si>
-  <si>
     <t>Results without AI</t>
   </si>
   <si>
@@ -1855,6 +1811,15 @@
   </si>
   <si>
     <t>A review of the application's source code was necessary, and the application code reveals no functionality to capture the user's most recent activity date.</t>
+  </si>
+  <si>
+    <t>The application's source code must be accessed to check if it used object serialization using safe serialization APIs to prevent security vulnerabilities.</t>
+  </si>
+  <si>
+    <t>The application's source code must be accessed to check if it used object deserialization using safe serialization APIs to prevent security vulnerabilities.</t>
+  </si>
+  <si>
+    <t>It is necessary to review the application's functionality in runtime mode to verify if it includes biometric controls such as FaceID and TouchID.</t>
   </si>
 </sst>
 </file>
@@ -2362,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
-      <selection sqref="A1:A462"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2380,16 +2345,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="E1" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -2514,7 +2479,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -2711,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -2818,7 +2783,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -2943,7 +2908,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -3140,7 +3105,7 @@
         <v>11</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -3409,7 +3374,7 @@
         <v>11</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -3426,7 +3391,7 @@
         <v>11</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
     </row>
     <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -3569,7 +3534,7 @@
         <v>11</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -3586,7 +3551,7 @@
         <v>11</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
     </row>
     <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -3639,7 +3604,7 @@
         <v>11</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -3656,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
     </row>
     <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -3691,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -3708,7 +3673,7 @@
         <v>11</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
     </row>
     <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -3941,7 +3906,7 @@
         <v>11</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
     </row>
     <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -3976,7 +3941,7 @@
         <v>11</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -3993,7 +3958,7 @@
         <v>11</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
     </row>
     <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -4154,7 +4119,7 @@
         <v>11</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
     </row>
     <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -4333,7 +4298,7 @@
         <v>11</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -4440,7 +4405,7 @@
         <v>11</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -4457,7 +4422,7 @@
         <v>11</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
     </row>
     <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -4852,7 +4817,7 @@
         <v>11</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -4869,7 +4834,7 @@
         <v>11</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
     </row>
     <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -4940,7 +4905,7 @@
         <v>11</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
     </row>
     <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -5173,7 +5138,7 @@
         <v>11</v>
       </c>
       <c r="E157" s="13" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -5190,7 +5155,7 @@
         <v>11</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
     </row>
     <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -5225,7 +5190,7 @@
         <v>11</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
     </row>
     <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -5296,7 +5261,7 @@
         <v>11</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
     </row>
     <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -5475,7 +5440,7 @@
         <v>11</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
     </row>
     <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -5546,7 +5511,7 @@
         <v>11</v>
       </c>
       <c r="E178" s="13" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -5563,7 +5528,7 @@
         <v>11</v>
       </c>
       <c r="E179" s="13" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
     </row>
     <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -5598,7 +5563,7 @@
         <v>11</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
     </row>
     <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -5795,7 +5760,7 @@
         <v>11</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
     </row>
     <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -5920,7 +5885,7 @@
         <v>11</v>
       </c>
       <c r="E199" s="13" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
     </row>
     <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -6135,7 +6100,7 @@
         <v>11</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -6152,7 +6117,7 @@
         <v>11</v>
       </c>
       <c r="E212" s="13" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6169,7 +6134,7 @@
         <v>11</v>
       </c>
       <c r="E213" s="13" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
     </row>
     <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -6276,7 +6241,7 @@
         <v>11</v>
       </c>
       <c r="E219" s="13" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
     </row>
     <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -6311,7 +6276,7 @@
         <v>11</v>
       </c>
       <c r="E221" s="13" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
     </row>
     <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -6526,7 +6491,7 @@
         <v>11</v>
       </c>
       <c r="E233" s="13" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -6543,7 +6508,7 @@
         <v>11</v>
       </c>
       <c r="E234" s="13" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
     </row>
     <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -6740,7 +6705,7 @@
         <v>11</v>
       </c>
       <c r="E245" s="13" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
     </row>
     <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -6793,7 +6758,7 @@
         <v>11</v>
       </c>
       <c r="E248" s="13" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
     </row>
     <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -7026,7 +6991,7 @@
         <v>11</v>
       </c>
       <c r="E261" s="13" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
     </row>
     <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -7385,7 +7350,7 @@
         <v>11</v>
       </c>
       <c r="E281" s="13" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -7402,7 +7367,7 @@
         <v>11</v>
       </c>
       <c r="E282" s="13" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
     </row>
     <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -7707,7 +7672,7 @@
         <v>11</v>
       </c>
       <c r="E299" s="13" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
     </row>
     <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -7778,7 +7743,7 @@
         <v>11</v>
       </c>
       <c r="E303" s="13" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -7795,7 +7760,7 @@
         <v>11</v>
       </c>
       <c r="E304" s="13" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -7812,7 +7777,7 @@
         <v>11</v>
       </c>
       <c r="E305" s="13" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -7829,7 +7794,7 @@
         <v>11</v>
       </c>
       <c r="E306" s="13" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -7846,7 +7811,7 @@
         <v>11</v>
       </c>
       <c r="E307" s="13" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -7863,7 +7828,7 @@
         <v>11</v>
       </c>
       <c r="E308" s="13" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -7880,7 +7845,7 @@
         <v>11</v>
       </c>
       <c r="E309" s="13" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -7897,7 +7862,7 @@
         <v>11</v>
       </c>
       <c r="E310" s="13" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -7914,7 +7879,7 @@
         <v>11</v>
       </c>
       <c r="E311" s="13" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
     </row>
     <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -7967,7 +7932,7 @@
         <v>11</v>
       </c>
       <c r="E314" s="13" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -7984,7 +7949,7 @@
         <v>11</v>
       </c>
       <c r="E315" s="13" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
     </row>
     <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -8037,7 +8002,7 @@
         <v>11</v>
       </c>
       <c r="E318" s="13" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
     </row>
     <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -8324,7 +8289,7 @@
         <v>11</v>
       </c>
       <c r="E334" s="13" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
     </row>
     <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -8413,7 +8378,7 @@
         <v>11</v>
       </c>
       <c r="E339" s="13" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
     </row>
     <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -8682,7 +8647,7 @@
         <v>11</v>
       </c>
       <c r="E354" s="13" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
     </row>
     <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -9707,7 +9672,7 @@
         <v>11</v>
       </c>
       <c r="E411" s="13" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
     </row>
     <row r="412" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -9724,7 +9689,7 @@
         <v>11</v>
       </c>
       <c r="E412" s="13" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
     </row>
     <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -9939,7 +9904,7 @@
         <v>11</v>
       </c>
       <c r="E424" s="13" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
     </row>
     <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -10334,7 +10299,7 @@
         <v>11</v>
       </c>
       <c r="E446" s="13" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -10621,7 +10586,7 @@
         <v>11</v>
       </c>
       <c r="E462" s="13" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -10777,1163 +10742,272 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D412ECA1-790D-4811-8F71-6DADB48DF0E8}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97C92A0-166F-48E2-B1C3-2920A4A2131B}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>524</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>525</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>526</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="130.19999999999999" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="231" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="10" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="216.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="159" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>536</v>
+      <c r="D4" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="317.39999999999998" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>536</v>
+        <v>11</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="202.2" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="231" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="288" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>536</v>
+        <v>24</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="10" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>536</v>
+        <v>24</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>93</v>
+        <v>467</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="288" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="388.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="288" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="302.39999999999998" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="216" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="216" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="288" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="144" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="216" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="331.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="288" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="331.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="288" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="216" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="216" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="216" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="302.39999999999998" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="345.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="288" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="288" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="216" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="345.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="216" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>535</v>
+        <v>11</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E67" xr:uid="{D412ECA1-790D-4811-8F71-6DADB48DF0E8}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="no"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E1" xr:uid="{D97C92A0-166F-48E2-B1C3-2920A4A2131B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11942,7 +11016,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944C6E6A-D3DF-4D44-8CE4-A2F91A523130}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -11974,7 +11050,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>477</v>
@@ -11991,7 +11067,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>478</v>
@@ -12008,7 +11084,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>479</v>
@@ -12025,7 +11101,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>480</v>
@@ -12042,7 +11118,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>481</v>
@@ -12059,10 +11135,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
@@ -12076,10 +11152,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
@@ -12093,10 +11169,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
@@ -12110,10 +11186,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
@@ -12127,10 +11203,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
@@ -12144,10 +11220,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="144" x14ac:dyDescent="0.3">
@@ -12161,10 +11237,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
@@ -12178,10 +11254,10 @@
         <v>24</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
@@ -12195,10 +11271,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="388.8" x14ac:dyDescent="0.3">
@@ -12212,10 +11288,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="288" x14ac:dyDescent="0.3">
@@ -12229,10 +11305,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -12246,10 +11322,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -12263,10 +11339,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -12280,10 +11356,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
@@ -12297,10 +11373,10 @@
         <v>24</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -12314,10 +11390,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="288" x14ac:dyDescent="0.3">
@@ -12331,10 +11407,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="144" x14ac:dyDescent="0.3">
@@ -12348,10 +11424,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="216" x14ac:dyDescent="0.3">
@@ -12365,10 +11441,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
@@ -12382,10 +11458,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
@@ -12399,10 +11475,10 @@
         <v>5</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="288" x14ac:dyDescent="0.3">
@@ -12416,10 +11492,10 @@
         <v>5</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -12433,10 +11509,10 @@
         <v>5</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
@@ -12450,10 +11526,10 @@
         <v>24</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
@@ -12467,10 +11543,10 @@
         <v>24</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
@@ -12484,10 +11560,10 @@
         <v>24</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
@@ -12501,10 +11577,10 @@
         <v>5</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
@@ -12518,10 +11594,10 @@
         <v>24</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="288" x14ac:dyDescent="0.3">
@@ -12535,10 +11611,10 @@
         <v>5</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="216" x14ac:dyDescent="0.3">
@@ -12552,10 +11628,10 @@
         <v>5</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="216" x14ac:dyDescent="0.3">
@@ -12569,10 +11645,10 @@
         <v>5</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="216" x14ac:dyDescent="0.3">
@@ -12586,10 +11662,10 @@
         <v>5</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -12603,10 +11679,10 @@
         <v>24</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -12620,10 +11696,10 @@
         <v>5</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -12637,10 +11713,10 @@
         <v>5</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -12654,10 +11730,10 @@
         <v>5</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
@@ -12671,10 +11747,10 @@
         <v>5</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -12688,10 +11764,10 @@
         <v>24</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="288" x14ac:dyDescent="0.3">
@@ -12705,10 +11781,10 @@
         <v>5</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="288" x14ac:dyDescent="0.3">
@@ -12722,10 +11798,10 @@
         <v>24</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -12739,10 +11815,10 @@
         <v>5</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="216" x14ac:dyDescent="0.3">
@@ -12756,10 +11832,10 @@
         <v>24</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
@@ -12773,10 +11849,10 @@
         <v>5</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
@@ -12790,10 +11866,10 @@
         <v>5</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
@@ -12807,14 +11883,896 @@
         <v>5</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E51" xr:uid="{944C6E6A-D3DF-4D44-8CE4-A2F91A523130}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C002820-0DFF-4E49-B6F7-1BEF798CF8A7}">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="130.19999999999999" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Agreement and discrepancy taxonomy/3. comparison_with_vs_without_AI.xlsx
+++ b/Agreement and discrepancy taxonomy/3. comparison_with_vs_without_AI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pp3\SECM-CAT\Agreement and discrepancy taxonomy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265E4EE9-8225-4ADD-9590-C8C979C7049A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93836B2A-B4C5-4252-AFF6-08019D3C7A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="556">
   <si>
     <t>PUID</t>
   </si>
@@ -1465,144 +1465,6 @@
     <t>SECM-CAT-ICR-023</t>
   </si>
   <si>
-    <t>requirió a validation of the code signature via comandos para confirmar el cumplimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requería acceder al código fuente, buscar la implementación de SSLSocketFactory  y verificar que se cumpla con la medida de seguridad checkServerTrusted </t>
-  </si>
-  <si>
-    <t>se debía ejecutar la aplicación y navegar en ella para determinar si tiene canales de feedback dentro de sus vistas</t>
-  </si>
-  <si>
-    <t>Se debía acceder a la aplicación mientras se ejecutaba para verificar si tenía segregado los módulos de administración de los módulos de usuario, al revisar la aplicación no se encontraron módulos de administración</t>
-  </si>
-  <si>
-    <t>requirió navegar en el código fuente de la aplicación para verificar si key credentials are loaded securely using environment variables</t>
-  </si>
-  <si>
-    <t>Se debía ingresar a la aplicación como un usuario del sistema y verificar que no se tenga acceso a funciones catalogadas como privilegiadas</t>
-  </si>
-  <si>
-    <t>Se debía ingresar a la aplicación mobil luego de eliminar un usuario desde el backend para verificar que termine la sesion de usuario en curso</t>
-  </si>
-  <si>
-    <t>Se requirió verificar que application identifiers are not displayed until the log-on process has been successfully completed</t>
-  </si>
-  <si>
-    <t>Requería ingresar a la aplicación y verificar que durante la frase de autenticación no se muestren mensajes de ayuda ni feedbak</t>
-  </si>
-  <si>
-    <t>Se requería verificar solo se validen las credenciales de manera conjunta al intentar autenticarse</t>
-  </si>
-  <si>
-    <t>Se requería verificar que la aplicación en tiempo de ejecución al ingresar tres veces consecutivas las credenciales incorrectas, realice el bloqueo respectivo</t>
-  </si>
-  <si>
-    <t>Se requirió verificar los permisos por cada usuario y a que módulos podía acceder a fin de evaluar el control</t>
-  </si>
-  <si>
-    <t>Se requirió una revisión de código para descartar el uso de device identifiers or geolocation data, for user authentication</t>
-  </si>
-  <si>
-    <t>Fue necesario ingresar al Backend de la aplicación y verificar se implementen procedimientos de gestión de contraseñas seguras</t>
-  </si>
-  <si>
-    <t>Fue necesario ingresar al backend de la aplicación a través de la versión Web y se verifico que the web application's user and credential management module allows you to configure temporary passwords, which require an immediate change to a permanent password upon first login</t>
-  </si>
-  <si>
-    <t>Se accedió al backend de la aplicación para gestión de usuarios y se pudo comprobar que se permite configure temporary passwords, which require an immediate change to a permanent password upon first login</t>
-  </si>
-  <si>
-    <t>Fue necesario ingresar al código de la aplicación Android y verificar que  BroadcastReceiver with the android:exported="false" configuration has been detected in the AndroidManifest.xml file</t>
-  </si>
-  <si>
-    <t>fue necesario acceder al código de la aplicación Android para verificar que has been verified that in the AndroidManifest.xml file a BroadcastReceiver has the configuration android:exported="false"</t>
-  </si>
-  <si>
-    <t>Se tuvo que ingresar al backend de la aplicación. y se verifica que the application, through the user and role management web module, implements a role-based access control (RBAC) mechanism for authorization, independent of authentication mechanisms. It also allows permissions to be assigned to modules based on the user</t>
-  </si>
-  <si>
-    <t>Se ingresó a la aplicación del servidor web y se comparó con la autenticación de la app móvil y son iguales, usuario y contraseña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se requirió un escaneo del backend web de la aplicación para descartar vulnerabilities associated with a lack of authentication and authorization prior to granting access to protected resources </t>
-  </si>
-  <si>
-    <t>Se requirió una ejecución de la aplicación en tiempo real y se verifica que log out after a period of inactivity to prevent unauthorized access, particularly in high-risk locations or when handling sensitive data</t>
-  </si>
-  <si>
-    <t>Se requirió cerrar sesión desde la aplicación para verificar que se muestre el mensaje de logout  existoso</t>
-  </si>
-  <si>
-    <t>Se ingresó al backend de la aplicación y se verifica que the Web application uses as back-end, implements by default 7 failed attempts to block a user's account</t>
-  </si>
-  <si>
-    <t>Requirió una revisión manual code, and it is verified that WebViews functionality is not implemented, therefore, control is considered to be fulfilled by design</t>
-  </si>
-  <si>
-    <t>Se requirió correr la aplicación y verificar que la aplicación enmascara con asteriscos el password</t>
-  </si>
-  <si>
-    <t>Fue necesario ingresar y revisar el código fuente para detectar si se implementa factor doble autenticación FMA, o SMS sendig, por lo que al no existir dicha funcionalidad, no existe vector de ataque</t>
-  </si>
-  <si>
-    <t>Fue necesario ingresar al código fuente de la aplicación para verificar que 	No intents, transmissions, or permissions related to SMS/MMS were identified, and there is no evidence of functional flows or SMS-based transmissions that handle confidential data; therefore, the scenario regulated by this requirement is not activated for the mobile application</t>
-  </si>
-  <si>
-    <t>Fue necesario inspeccionar el código fuente para verificar si se encontraba en primera instancia habilitado o no webviews, al no encontrarse implementada esta funcionalidad, se declara cumplimiento puesto que no hay vector de ataque</t>
-  </si>
-  <si>
-    <t>Fue necesario revisar el código fuente minuciosamente para verificar que  the session ID is not being used in the URL in HTTP requests</t>
-  </si>
-  <si>
-    <t>Fue necesario verificar que la aplicación emplee mecanismos adicionales para asegurar las solicitudes de red basadas en protocolo http</t>
-  </si>
-  <si>
-    <t>Fue necesario verificar que la aplicación en tiempo de ejecución emplee credenciales únicas para autenticación, en este caso se usa usuario y password</t>
-  </si>
-  <si>
-    <t>Fue necesario ingresar al cóigo fuente de la aplicación y erificar que no se encuentra habilitado JS, por lo que cumpliría a través de diseño seguro por defecto</t>
-  </si>
-  <si>
-    <t>No se encontraron vulnerabilidades asociadas a desbordamiento de buffer al realizar un escaneo del backend de la aplicación, así mismo no se encontró la vulnerabilidad en el código fuente de la apk</t>
-  </si>
-  <si>
-    <t>Fue necesario un escaneo del backend de la aplicación para detectar si habría issues sobre manejo inadecuado de memoria, no se encontraron issues</t>
-  </si>
-  <si>
-    <t>Fue necesario un escaneo del backend de la aplicación para detectar si habría issues sobre manejo inadecuado de memoria como use-after-free errors , no se encontraron issues</t>
-  </si>
-  <si>
-    <t>Fue necesario revisar el código fuente de la aplicación y se encontró que no se tiene habilitado JS ni Webviews, debido a seguridad por diseño no se tienen vectores de ataque sobre carga dinámica de código</t>
-  </si>
-  <si>
-    <t>Se realizó una búsqueda en el código fuente y no implementations were found for calls to methods such as System.loadLibrary(), DexClassLoader, or any reflection technique that allows classes to be loaded dynamically from external locations</t>
-  </si>
-  <si>
-    <t>Fue necesario buscar en el código fuente de la aplicación para evidenciar que no se implementa llamadas a System.loadLibrary(), DexClassLoader, por lo tanto cumple con seguridad por diseño</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fue necesario ingresar al código fuente de la aplicación y en el build.gradle no se detectó llamadas a código nativo. Adicionalmente no se tiene hallazgos de manejo inseguro de memoria </t>
-  </si>
-  <si>
-    <t>Fue necesario ingresar al código fuente de la aplicación y dentro del fichero AndroidManifest.xml se evidenció que no user-defined permissions or new permissions outside of the standard ones are being used</t>
-  </si>
-  <si>
-    <t>Se requirió una revisión del código de la aplicación donde se verificó the use of permission management functionality using the PermissionsDispatcher library and its constructPermissionsRequest method, which allows for runtime management of permissions for accessing the camera and external storage</t>
-  </si>
-  <si>
-    <t>Fue necesario revisar la documentación el Backend de la aplicación para evidenciar que eisten controles para consumir las apis expuestas</t>
-  </si>
-  <si>
-    <t>Fue necesario desinstalar la aplicación de manera manual y verificar vía comandos que confidential user data are deleted luego de desinstalar</t>
-  </si>
-  <si>
-    <t>Fue necesario revisar la funcionalidad de la aplicación web backend y there is a function to match patients by certain criteria, including UUID</t>
-  </si>
-  <si>
-    <t>Fue necesario acceder al código fuente de la aplicación y verificar que no se ocupen modos deprecados, for instance  MODE_WORLD_READABLE is not implemented, nor was the use of sockets identified, therefore the requirement is met</t>
-  </si>
-  <si>
     <t>sí</t>
   </si>
   <si>
@@ -1813,10 +1675,43 @@
     <t>It is necessary to review the application's functionality in runtime mode to verify if it includes biometric controls such as FaceID and TouchID.</t>
   </si>
   <si>
-    <t>se requirió un escaneo del backend web de la aplicación para descartar vulnerabilidades asocioadas con poor randomization and incidents of loss of access to generated tokens in endpoints</t>
-  </si>
-  <si>
-    <t>Se requirió una revisión del código de la aplicación para verificar que no se implemente Webviews ni JS por lo que output sanitization measures to prevent cross-site scripting (XSS) attacks no es aplicable, presenta seguridad por diseño</t>
+    <t>It required validation of the code signature via commands to confirm compliance</t>
+  </si>
+  <si>
+    <t>The application had to be accessed while running to verify if it had segregated the administration modules from the user modules; upon reviewing the application, no administration modules were found.</t>
+  </si>
+  <si>
+    <t>It required navigating through the application's source code to verify if key credentials are loaded securely using environment variables</t>
+  </si>
+  <si>
+    <t>You must log into the application as a system user and verify that you do not have access to functions classified as privileged.</t>
+  </si>
+  <si>
+    <t>You must log into the mobile application after deleting a user from the backend to verify that the current user session ends</t>
+  </si>
+  <si>
+    <t>It requires logging into the application and verifying that no help or feedback messages are displayed during the authentication phrase.</t>
+  </si>
+  <si>
+    <t>It is necessary to verify that only the credentials are validated together when attempting to authenticate.</t>
+  </si>
+  <si>
+    <t>It is necessary to verify that the application, at runtime, performs the corresponding lock when incorrect credentials are entered three consecutive times.</t>
+  </si>
+  <si>
+    <t>It is necessary to verify the permissions for each user and which modules they could access in order to evaluate control</t>
+  </si>
+  <si>
+    <t>It was necessary to enter the source code of the application to verify that: No intents, transmissions, or permissions related to SMS/MMS were identified, and there is no evidence of functional flows or SMS-based transmissions that handle confidential data; Therefore, the scenario regulated by this requirement is not activated for the mobile application</t>
+  </si>
+  <si>
+    <t>It was necessary to review the application's source code and it was found that JS and Webviews are not enabled, due to security by design, there are no attack vectors for dynamic code loading</t>
+  </si>
+  <si>
+    <t>This requires accessing the source code, searching for the SSLSocketFactory implementation, and verifying that the checkServerTrusted security measure is met.</t>
+  </si>
+  <si>
+    <t>You must run the application and navigate through it to determine if it has feedback channels within its views</t>
   </si>
 </sst>
 </file>
@@ -2344,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="E1" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -2478,7 +2373,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -2675,7 +2570,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -2782,7 +2677,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>526</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -2907,7 +2802,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -3104,7 +2999,7 @@
         <v>8</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -3373,7 +3268,7 @@
         <v>8</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -3390,7 +3285,7 @@
         <v>8</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
     </row>
     <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -3533,7 +3428,7 @@
         <v>8</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -3550,7 +3445,7 @@
         <v>8</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -3603,7 +3498,7 @@
         <v>8</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>534</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -3620,7 +3515,7 @@
         <v>8</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>533</v>
+        <v>487</v>
       </c>
     </row>
     <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -3655,7 +3550,7 @@
         <v>8</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>535</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -3672,7 +3567,7 @@
         <v>8</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>536</v>
+        <v>490</v>
       </c>
     </row>
     <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -3905,7 +3800,7 @@
         <v>8</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>537</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -3940,7 +3835,7 @@
         <v>8</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>538</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -3957,7 +3852,7 @@
         <v>8</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>539</v>
+        <v>493</v>
       </c>
     </row>
     <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -4118,7 +4013,7 @@
         <v>8</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>540</v>
+        <v>494</v>
       </c>
     </row>
     <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -4297,7 +4192,7 @@
         <v>8</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>541</v>
+        <v>495</v>
       </c>
     </row>
     <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -4404,7 +4299,7 @@
         <v>8</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>542</v>
+        <v>496</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -4421,7 +4316,7 @@
         <v>8</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>543</v>
+        <v>497</v>
       </c>
     </row>
     <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -4816,7 +4711,7 @@
         <v>8</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>544</v>
+        <v>498</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -4833,7 +4728,7 @@
         <v>8</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>545</v>
+        <v>499</v>
       </c>
     </row>
     <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -4904,7 +4799,7 @@
         <v>8</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>546</v>
+        <v>500</v>
       </c>
     </row>
     <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -5137,7 +5032,7 @@
         <v>8</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>547</v>
+        <v>501</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -5154,7 +5049,7 @@
         <v>8</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>547</v>
+        <v>501</v>
       </c>
     </row>
     <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -5189,7 +5084,7 @@
         <v>8</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>548</v>
+        <v>502</v>
       </c>
     </row>
     <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -5260,7 +5155,7 @@
         <v>8</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>549</v>
+        <v>503</v>
       </c>
     </row>
     <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -5439,7 +5334,7 @@
         <v>8</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>550</v>
+        <v>504</v>
       </c>
     </row>
     <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -5510,7 +5405,7 @@
         <v>8</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>551</v>
+        <v>505</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -5527,7 +5422,7 @@
         <v>8</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>552</v>
+        <v>506</v>
       </c>
     </row>
     <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -5562,7 +5457,7 @@
         <v>8</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>553</v>
+        <v>507</v>
       </c>
     </row>
     <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -5759,7 +5654,7 @@
         <v>8</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>554</v>
+        <v>508</v>
       </c>
     </row>
     <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -5884,7 +5779,7 @@
         <v>8</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>555</v>
+        <v>509</v>
       </c>
     </row>
     <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -6099,7 +5994,7 @@
         <v>8</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>556</v>
+        <v>510</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -6116,7 +6011,7 @@
         <v>8</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>557</v>
+        <v>511</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -6133,7 +6028,7 @@
         <v>8</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>558</v>
+        <v>512</v>
       </c>
     </row>
     <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -6240,7 +6135,7 @@
         <v>8</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>559</v>
+        <v>513</v>
       </c>
     </row>
     <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -6275,7 +6170,7 @@
         <v>8</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>560</v>
+        <v>514</v>
       </c>
     </row>
     <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -6490,7 +6385,7 @@
         <v>8</v>
       </c>
       <c r="E233" s="12" t="s">
-        <v>561</v>
+        <v>515</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -6507,7 +6402,7 @@
         <v>8</v>
       </c>
       <c r="E234" s="12" t="s">
-        <v>562</v>
+        <v>516</v>
       </c>
     </row>
     <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -6704,7 +6599,7 @@
         <v>8</v>
       </c>
       <c r="E245" s="12" t="s">
-        <v>563</v>
+        <v>517</v>
       </c>
     </row>
     <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -6757,7 +6652,7 @@
         <v>8</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>564</v>
+        <v>518</v>
       </c>
     </row>
     <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -6990,7 +6885,7 @@
         <v>8</v>
       </c>
       <c r="E261" s="12" t="s">
-        <v>565</v>
+        <v>519</v>
       </c>
     </row>
     <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -7349,7 +7244,7 @@
         <v>8</v>
       </c>
       <c r="E281" s="12" t="s">
-        <v>566</v>
+        <v>520</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -7366,7 +7261,7 @@
         <v>8</v>
       </c>
       <c r="E282" s="12" t="s">
-        <v>567</v>
+        <v>521</v>
       </c>
     </row>
     <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -7671,7 +7566,7 @@
         <v>8</v>
       </c>
       <c r="E299" s="12" t="s">
-        <v>568</v>
+        <v>522</v>
       </c>
     </row>
     <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -7742,7 +7637,7 @@
         <v>8</v>
       </c>
       <c r="E303" s="12" t="s">
-        <v>569</v>
+        <v>523</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -7759,7 +7654,7 @@
         <v>8</v>
       </c>
       <c r="E304" s="12" t="s">
-        <v>570</v>
+        <v>524</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -7776,7 +7671,7 @@
         <v>8</v>
       </c>
       <c r="E305" s="12" t="s">
-        <v>571</v>
+        <v>525</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -7793,7 +7688,7 @@
         <v>8</v>
       </c>
       <c r="E306" s="12" t="s">
-        <v>571</v>
+        <v>525</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -7810,7 +7705,7 @@
         <v>8</v>
       </c>
       <c r="E307" s="12" t="s">
-        <v>571</v>
+        <v>525</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -7827,7 +7722,7 @@
         <v>8</v>
       </c>
       <c r="E308" s="12" t="s">
-        <v>572</v>
+        <v>526</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -7844,7 +7739,7 @@
         <v>8</v>
       </c>
       <c r="E309" s="12" t="s">
-        <v>573</v>
+        <v>527</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -7861,7 +7756,7 @@
         <v>8</v>
       </c>
       <c r="E310" s="12" t="s">
-        <v>572</v>
+        <v>526</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -7878,7 +7773,7 @@
         <v>8</v>
       </c>
       <c r="E311" s="12" t="s">
-        <v>574</v>
+        <v>528</v>
       </c>
     </row>
     <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -7931,7 +7826,7 @@
         <v>8</v>
       </c>
       <c r="E314" s="12" t="s">
-        <v>575</v>
+        <v>529</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -7948,7 +7843,7 @@
         <v>8</v>
       </c>
       <c r="E315" s="12" t="s">
-        <v>576</v>
+        <v>530</v>
       </c>
     </row>
     <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -8001,7 +7896,7 @@
         <v>8</v>
       </c>
       <c r="E318" s="12" t="s">
-        <v>577</v>
+        <v>531</v>
       </c>
     </row>
     <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -8288,7 +8183,7 @@
         <v>8</v>
       </c>
       <c r="E334" s="12" t="s">
-        <v>578</v>
+        <v>532</v>
       </c>
     </row>
     <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -8377,7 +8272,7 @@
         <v>8</v>
       </c>
       <c r="E339" s="12" t="s">
-        <v>579</v>
+        <v>533</v>
       </c>
     </row>
     <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -8646,7 +8541,7 @@
         <v>8</v>
       </c>
       <c r="E354" s="12" t="s">
-        <v>580</v>
+        <v>534</v>
       </c>
     </row>
     <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -9671,7 +9566,7 @@
         <v>8</v>
       </c>
       <c r="E411" s="12" t="s">
-        <v>581</v>
+        <v>535</v>
       </c>
     </row>
     <row r="412" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -9688,7 +9583,7 @@
         <v>8</v>
       </c>
       <c r="E412" s="12" t="s">
-        <v>582</v>
+        <v>536</v>
       </c>
     </row>
     <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -9903,7 +9798,7 @@
         <v>8</v>
       </c>
       <c r="E424" s="12" t="s">
-        <v>583</v>
+        <v>537</v>
       </c>
     </row>
     <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -10298,7 +10193,7 @@
         <v>8</v>
       </c>
       <c r="E446" s="12" t="s">
-        <v>584</v>
+        <v>538</v>
       </c>
     </row>
     <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -10585,7 +10480,7 @@
         <v>8</v>
       </c>
       <c r="E462" s="12" t="s">
-        <v>585</v>
+        <v>539</v>
       </c>
     </row>
     <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -10744,8 +10639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97C92A0-166F-48E2-B1C3-2920A4A2131B}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10761,16 +10656,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
@@ -10787,7 +10682,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>586</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -10804,7 +10699,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>587</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
@@ -10821,7 +10716,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>538</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -10838,7 +10733,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>539</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -10855,7 +10750,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>547</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -10872,7 +10767,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>588</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -10889,7 +10784,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>556</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
@@ -10906,7 +10801,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>557</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
@@ -10923,7 +10818,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>565</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -10940,7 +10835,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>567</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -10957,7 +10852,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>568</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
@@ -10974,7 +10869,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>569</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
@@ -10991,7 +10886,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>582</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -11008,7 +10903,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>585</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -11022,7 +10917,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A39"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11032,19 +10927,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="130.19999999999999" thickTop="1" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="101.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -11058,10 +10953,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
@@ -11075,10 +10970,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
@@ -11092,10 +10987,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>69</v>
       </c>
@@ -11109,10 +11004,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -11126,10 +11021,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>74</v>
       </c>
@@ -11143,10 +11038,10 @@
         <v>8</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>76</v>
       </c>
@@ -11160,10 +11055,10 @@
         <v>8</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
@@ -11177,10 +11072,10 @@
         <v>8</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>90</v>
       </c>
@@ -11194,7 +11089,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
@@ -11211,7 +11106,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="388.8" x14ac:dyDescent="0.3">
@@ -11228,10 +11123,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>119</v>
       </c>
@@ -11245,7 +11140,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -11262,10 +11157,10 @@
         <v>8</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>142</v>
       </c>
@@ -11279,7 +11174,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -11296,10 +11191,10 @@
         <v>8</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>166</v>
       </c>
@@ -11313,10 +11208,10 @@
         <v>8</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>176</v>
       </c>
@@ -11330,10 +11225,10 @@
         <v>8</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>180</v>
       </c>
@@ -11347,7 +11242,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="144" x14ac:dyDescent="0.3">
@@ -11364,10 +11259,10 @@
         <v>8</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>183</v>
       </c>
@@ -11381,10 +11276,10 @@
         <v>8</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>194</v>
       </c>
@@ -11398,10 +11293,10 @@
         <v>8</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>215</v>
       </c>
@@ -11415,10 +11310,10 @@
         <v>8</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>221</v>
       </c>
@@ -11432,7 +11327,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -11449,10 +11344,10 @@
         <v>8</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>250</v>
       </c>
@@ -11466,10 +11361,10 @@
         <v>8</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>306</v>
       </c>
@@ -11483,10 +11378,10 @@
         <v>8</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>307</v>
       </c>
@@ -11500,10 +11395,10 @@
         <v>8</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>308</v>
       </c>
@@ -11517,10 +11412,10 @@
         <v>8</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>309</v>
       </c>
@@ -11534,10 +11429,10 @@
         <v>8</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>311</v>
       </c>
@@ -11551,10 +11446,10 @@
         <v>8</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>312</v>
       </c>
@@ -11568,10 +11463,10 @@
         <v>8</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>313</v>
       </c>
@@ -11585,7 +11480,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>509</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
@@ -11602,10 +11497,10 @@
         <v>8</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>320</v>
       </c>
@@ -11619,7 +11514,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -11636,10 +11531,10 @@
         <v>8</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>413</v>
       </c>
@@ -11653,7 +11548,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
@@ -11670,10 +11565,10 @@
         <v>8</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>448</v>
       </c>
@@ -11687,7 +11582,7 @@
         <v>8</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -11700,8 +11595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C002820-0DFF-4E49-B6F7-1BEF798CF8A7}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11711,19 +11606,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="231" thickTop="1" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="245.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
@@ -11734,10 +11629,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>474</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
@@ -11751,13 +11646,13 @@
         <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>73</v>
       </c>
@@ -11768,13 +11663,13 @@
         <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>102</v>
       </c>
@@ -11785,13 +11680,13 @@
         <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>162</v>
       </c>
@@ -11802,10 +11697,10 @@
         <v>21</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
@@ -11819,13 +11714,13 @@
         <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>236</v>
       </c>
@@ -11836,10 +11731,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
@@ -11853,13 +11748,13 @@
         <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>283</v>
       </c>
@@ -11870,13 +11765,13 @@
         <v>21</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>310</v>
       </c>
@@ -11887,13 +11782,13 @@
         <v>21</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>317</v>
       </c>
@@ -11904,13 +11799,13 @@
         <v>21</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>336</v>
       </c>
@@ -11921,13 +11816,13 @@
         <v>21</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>356</v>
       </c>
@@ -11938,10 +11833,10 @@
         <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -11955,7 +11850,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11965,16 +11860,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="331.8" thickTop="1" x14ac:dyDescent="0.3">
@@ -11988,10 +11883,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>519</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>590</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
